--- a/SQL/Normalization.xlsx
+++ b/SQL/Normalization.xlsx
@@ -5,18 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slype\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\331\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0EE2D8-A9B7-4E74-BEB6-E04D566FAB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E3A6A0-A6C3-4879-A28C-51B06FE3BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1296AB01-AD24-4F16-91A3-E8FD79BCC2E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1296AB01-AD24-4F16-91A3-E8FD79BCC2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
     <sheet name="1NF" sheetId="2" r:id="rId2"/>
     <sheet name="2NF" sheetId="3" r:id="rId3"/>
-    <sheet name="3NF" sheetId="4" r:id="rId4"/>
+    <sheet name="3NF" sheetId="5" r:id="rId4"/>
+    <sheet name="Final PK" sheetId="6" r:id="rId5"/>
+    <sheet name="3NF (1st attempt)" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="178">
   <si>
     <t>customer firstname</t>
   </si>
@@ -479,9 +481,6 @@
     <t>Product Id</t>
   </si>
   <si>
-    <t>Address Id (can have multiple streets with the same name)</t>
-  </si>
-  <si>
     <t>Store Id</t>
   </si>
   <si>
@@ -491,9 +490,6 @@
     <t xml:space="preserve">City Id </t>
   </si>
   <si>
-    <t>City Id (can have multiple cities with the same name)</t>
-  </si>
-  <si>
     <t>Order Quantity</t>
   </si>
   <si>
@@ -539,26 +535,53 @@
     <t xml:space="preserve">Product Id </t>
   </si>
   <si>
-    <t>Inventory</t>
-  </si>
-  <si>
     <t>1NF: Columns shouldn’t contain more than one value, and you shouldn’t have multiple columns that contain the same value.</t>
   </si>
   <si>
     <t>3NF: Be in second normal form, have no transitive dependencies (every non key field should depend exclusively on the primary key field).</t>
   </si>
   <si>
-    <t>2NF: Be in 1NF, and have no partial relations (every non key field should depend on ALL primary key fields).</t>
-  </si>
-  <si>
     <t>Address Id</t>
+  </si>
+  <si>
+    <t>saint laurent</t>
+  </si>
+  <si>
+    <t>100 rue William</t>
+  </si>
+  <si>
+    <t>304 Rue François-Perrault</t>
+  </si>
+  <si>
+    <t>Montréal</t>
+  </si>
+  <si>
+    <t>86700 Weston Rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toronto</t>
+  </si>
+  <si>
+    <t>170  Sideroad</t>
+  </si>
+  <si>
+    <t>Quebec City</t>
+  </si>
+  <si>
+    <t>1231 Trudea road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ottawa</t>
+  </si>
+  <si>
+    <t>City Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,8 +718,69 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF548235"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5B9BD5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF5B9BD5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4472C4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFA9D08E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +803,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -848,21 +938,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -907,7 +997,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -939,13 +1039,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1005,6 +1105,74 @@
             <a:t> normalized form wth some sample data for reference.</a:t>
           </a:r>
           <a:endParaRPr lang="en-CA" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519A4E18-29C0-EFA6-48B4-B39A08668BF0}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{20C180F1-4EDA-FB8C-BC3D-AF8D30A517B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="4171950"/>
+          <a:ext cx="4905375" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Initial assumption: Every customer has unique email, every customer can only order each product once a day.</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1091,6 +1259,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1393,29 +1565,28 @@
   <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D29" sqref="D29:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" customWidth="1"/>
-    <col min="4" max="4" width="41.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.7109375" customWidth="1"/>
+    <col min="4" max="4" width="41.5703125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="27.77734375" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" customWidth="1"/>
-    <col min="16" max="16" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" customWidth="1"/>
     <col min="17" max="17" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,100 +1627,98 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5">
-        <v>4</v>
-      </c>
-      <c r="H2" s="7">
-        <v>45037</v>
-      </c>
-      <c r="I2" s="5">
-        <v>1</v>
-      </c>
-      <c r="J2" s="5">
-        <v>970</v>
-      </c>
-      <c r="K2" s="5">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="10">
+        <v>3</v>
+      </c>
+      <c r="H2" s="12">
+        <v>45222</v>
+      </c>
+      <c r="I2" s="10">
+        <v>2</v>
+      </c>
+      <c r="J2" s="10">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10">
         <v>0</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="L2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="10">
-        <v>3</v>
-      </c>
-      <c r="H3" s="12">
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
         <v>45222</v>
       </c>
-      <c r="I3" s="10">
-        <v>2</v>
-      </c>
-      <c r="J3" s="10">
-        <v>10</v>
-      </c>
-      <c r="K3" s="10">
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>30</v>
+      </c>
+      <c r="K3" s="5">
         <v>0</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L3" s="5"/>
+      <c r="M3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>33</v>
@@ -1558,371 +1727,375 @@
         <v>34</v>
       </c>
       <c r="G4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
-        <v>45200</v>
+        <v>45222</v>
       </c>
       <c r="I4" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="K4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G5" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H5" s="12">
-        <v>45222</v>
+        <v>45201</v>
       </c>
       <c r="I5" s="10">
         <v>1</v>
       </c>
       <c r="J5" s="10">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="K5" s="10">
         <v>0</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="10"/>
+      <c r="M5" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10">
+        <v>3</v>
+      </c>
+      <c r="J6" s="10">
+        <v>50</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="5">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="5">
+        <v>856600</v>
+      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5</v>
+      </c>
+      <c r="H8" s="12">
+        <v>45222</v>
+      </c>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="10">
+        <v>2</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0</v>
+      </c>
+      <c r="L8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M8" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
-        <v>45222</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
-      </c>
-      <c r="J6" s="5">
-        <v>30</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12">
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="5">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>43957</v>
+      </c>
+      <c r="I9" s="5">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5">
+        <v>10</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="12">
         <v>45209</v>
       </c>
-      <c r="I7" s="10">
-        <v>1</v>
-      </c>
-      <c r="J7" s="10">
-        <v>10</v>
-      </c>
-      <c r="K7" s="10">
-        <v>0</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>45210</v>
-      </c>
-      <c r="I8" s="5">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5">
-        <v>40</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
+      <c r="I10" s="10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="10">
+        <v>50000</v>
+      </c>
+      <c r="K10" s="10">
+        <v>1</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="B11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" s="10">
-        <v>5</v>
-      </c>
-      <c r="H9" s="12">
-        <v>45209</v>
-      </c>
-      <c r="I9" s="10">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10">
-        <v>50000</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="5">
-        <v>2</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="5">
-        <v>856600</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="G11" s="10">
         <v>5</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="12">
+        <v>45148</v>
+      </c>
       <c r="I11" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="10">
-        <v>50</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
+        <v>50000</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="M11" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="G12" s="5">
         <v>4</v>
       </c>
       <c r="H12" s="7">
-        <v>43957</v>
+        <v>45037</v>
       </c>
       <c r="I12" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J12" s="5">
-        <v>10</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+        <v>970</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="M12" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="10">
-        <v>3</v>
-      </c>
-      <c r="H13" s="12">
-        <v>43720</v>
-      </c>
-      <c r="I13" s="10">
-        <v>3</v>
-      </c>
-      <c r="J13" s="10">
-        <v>30</v>
-      </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>45210</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>40</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +2136,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -2000,7 +2173,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -2041,59 +2214,59 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G17" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H17" s="12">
-        <v>45148</v>
+        <v>44845</v>
       </c>
       <c r="I17" s="10">
         <v>1</v>
       </c>
       <c r="J17" s="10">
-        <v>50000</v>
+        <v>38</v>
       </c>
       <c r="K17" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>33</v>
@@ -2102,139 +2275,141 @@
         <v>34</v>
       </c>
       <c r="G18" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="7">
-        <v>45222</v>
+        <v>45200</v>
       </c>
       <c r="I18" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" s="5">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="K18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G19" s="10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H19" s="12">
-        <v>45201</v>
+        <v>45209</v>
       </c>
       <c r="I19" s="10">
         <v>1</v>
       </c>
       <c r="J19" s="10">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="K19" s="10">
         <v>0</v>
       </c>
-      <c r="L19" s="10"/>
+      <c r="L19" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="M19" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" s="10">
+        <v>3</v>
+      </c>
+      <c r="H20" s="12">
+        <v>43720</v>
+      </c>
+      <c r="I20" s="10">
+        <v>3</v>
+      </c>
+      <c r="J20" s="10">
+        <v>30</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G21" s="5">
         <v>4</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="7">
         <v>43558</v>
       </c>
-      <c r="I20" s="5">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
+      <c r="I21" s="5">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
         <v>9.5</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="8" t="s">
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="10">
-        <v>5</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" s="10">
-        <v>3</v>
-      </c>
-      <c r="J21" s="10">
-        <v>13.5</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
@@ -2269,48 +2444,44 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="G23" s="10">
-        <v>1</v>
-      </c>
-      <c r="H23" s="12">
-        <v>44845</v>
+        <v>5</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="I23" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="10">
-        <v>38</v>
-      </c>
-      <c r="K23" s="10">
-        <v>2</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>106</v>
-      </c>
+        <v>13.5</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
@@ -2347,7 +2518,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
@@ -2365,7 +2536,7 @@
       <c r="T26" s="41"/>
       <c r="U26" s="41"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
@@ -2384,7 +2555,7 @@
       <c r="U27" s="41"/>
       <c r="V27" s="41"/>
     </row>
-    <row r="28" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="14" t="s">
         <v>107</v>
       </c>
@@ -2415,7 +2586,7 @@
       <c r="U28" s="41"/>
       <c r="V28" s="41"/>
     </row>
-    <row r="29" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>110</v>
       </c>
@@ -2429,7 +2600,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>112</v>
       </c>
@@ -2443,7 +2614,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>114</v>
       </c>
@@ -2457,7 +2628,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>116</v>
       </c>
@@ -2471,7 +2642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>118</v>
       </c>
@@ -2485,7 +2656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>120</v>
       </c>
@@ -2499,7 +2670,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>110</v>
       </c>
@@ -2513,7 +2684,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>110</v>
       </c>
@@ -2527,7 +2698,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>118</v>
       </c>
@@ -2541,7 +2712,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>120</v>
       </c>
@@ -2555,7 +2726,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>114</v>
       </c>
@@ -2569,7 +2740,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>112</v>
       </c>
@@ -2583,7 +2754,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>116</v>
       </c>
@@ -2597,7 +2768,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>118</v>
       </c>
@@ -2611,7 +2782,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>120</v>
       </c>
@@ -2625,7 +2796,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>110</v>
       </c>
@@ -2639,7 +2810,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>116</v>
       </c>
@@ -2653,7 +2824,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>110</v>
       </c>
@@ -2667,7 +2838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>118</v>
       </c>
@@ -2682,34 +2853,37 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M24">
+    <sortCondition ref="A2:A24"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="F26:U26"/>
     <mergeCell ref="F27:V27"/>
     <mergeCell ref="F28:V28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{921C69AA-0E38-4F1B-B5EA-0D8D2001AB9B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{6C66218A-202C-4CEC-A7D6-68AD9310774D}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{16526FB6-1031-4B36-A04B-13422110F2A4}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{42D258C6-1143-4717-A438-72F5389BDAF7}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{B797B0B4-3EFB-4A88-967D-1EBB87D9F31C}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{46C42E05-FACB-4986-91FD-08246E4C658F}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{0B97FA02-DA59-4491-9333-AA87D8806D1C}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{9710A069-DA47-4955-9645-32C15DB05CD8}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{1F9B859F-59B8-4D99-B308-57949452CC9A}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{2A8BB562-CEC0-4991-8EA8-3E474FEF2738}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{8110FA61-A5F7-4EA9-8085-16F343F113E2}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{4FF977E2-2E31-400A-998E-9B45A1F7D097}"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{921C69AA-0E38-4F1B-B5EA-0D8D2001AB9B}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{6C66218A-202C-4CEC-A7D6-68AD9310774D}"/>
+    <hyperlink ref="C18" r:id="rId3" xr:uid="{16526FB6-1031-4B36-A04B-13422110F2A4}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{42D258C6-1143-4717-A438-72F5389BDAF7}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{B797B0B4-3EFB-4A88-967D-1EBB87D9F31C}"/>
+    <hyperlink ref="C19" r:id="rId6" xr:uid="{46C42E05-FACB-4986-91FD-08246E4C658F}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{0B97FA02-DA59-4491-9333-AA87D8806D1C}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{9710A069-DA47-4955-9645-32C15DB05CD8}"/>
+    <hyperlink ref="C7" r:id="rId9" xr:uid="{1F9B859F-59B8-4D99-B308-57949452CC9A}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{2A8BB562-CEC0-4991-8EA8-3E474FEF2738}"/>
+    <hyperlink ref="C9" r:id="rId11" xr:uid="{8110FA61-A5F7-4EA9-8085-16F343F113E2}"/>
+    <hyperlink ref="C20" r:id="rId12" xr:uid="{4FF977E2-2E31-400A-998E-9B45A1F7D097}"/>
     <hyperlink ref="C14" r:id="rId13" xr:uid="{3DE1A865-A06B-4993-9028-BB585116ED9C}"/>
     <hyperlink ref="C15" r:id="rId14" xr:uid="{247A86C0-8919-459D-AFA1-3456AF7B6CC2}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{3AF712E1-78A2-453B-ABF9-72B13BFA1E13}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{0DC4D055-F73D-4656-8B5F-3ED1F4126E5D}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{A1176688-4064-4F1C-9640-F2FF2CA995CF}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{FE27638F-3F0C-4BEB-9742-4530A333846D}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{91637AF5-8DA7-4AA9-B6AC-172C118355D1}"/>
+    <hyperlink ref="C11" r:id="rId16" xr:uid="{0DC4D055-F73D-4656-8B5F-3ED1F4126E5D}"/>
+    <hyperlink ref="C4" r:id="rId17" xr:uid="{A1176688-4064-4F1C-9640-F2FF2CA995CF}"/>
+    <hyperlink ref="C5" r:id="rId18" xr:uid="{FE27638F-3F0C-4BEB-9742-4530A333846D}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{91637AF5-8DA7-4AA9-B6AC-172C118355D1}"/>
     <hyperlink ref="C22" r:id="rId20" xr:uid="{4F3F24CA-07FC-44C9-8BF3-0280FE645116}"/>
-    <hyperlink ref="C21" r:id="rId21" xr:uid="{B48F6296-EDD6-4359-9DD9-317F6E28456E}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{1AA3A4D5-731E-46E8-9CB3-72640CEA5013}"/>
+    <hyperlink ref="C23" r:id="rId21" xr:uid="{B48F6296-EDD6-4359-9DD9-317F6E28456E}"/>
+    <hyperlink ref="C17" r:id="rId22" xr:uid="{1AA3A4D5-731E-46E8-9CB3-72640CEA5013}"/>
     <hyperlink ref="C24" r:id="rId23" xr:uid="{B9D312D4-E3D5-42F8-80B5-7589C2DB9AE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2718,515 +2892,404 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0435C076-C3B6-4909-8F77-B8D0B6B4FE76}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.88671875" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
-    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" customWidth="1"/>
-    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>124</v>
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="33"/>
+      <c r="T1" s="23"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="24">
+        <v>43957</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="24">
+        <v>43720</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="24">
+        <v>40462</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="24">
+        <v>44687</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="24">
+        <v>45206</v>
+      </c>
+      <c r="J6">
         <v>2</v>
       </c>
-      <c r="E1" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="K6">
+        <v>80</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="F11" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="J1" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="K1" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="N1" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="S1" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="T1" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="U1" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="W1" s="23"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>128</v>
-      </c>
-      <c r="I2" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="24" t="s">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12">
+        <v>350</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14">
         <v>80</v>
       </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" s="25">
-        <v>1</v>
-      </c>
-      <c r="N2" s="24">
-        <v>43957</v>
-      </c>
-      <c r="O2">
-        <v>6</v>
-      </c>
-      <c r="P2">
-        <v>10</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D14" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" t="s">
         <v>132</v>
       </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-      <c r="K3" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3">
-        <v>2</v>
-      </c>
-      <c r="N3" s="24">
-        <v>43720</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>30</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>129</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" t="s">
-        <v>132</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4" s="24">
-        <v>40462</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>40</v>
-      </c>
-      <c r="Q4">
-        <v>3</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" t="s">
-        <v>54</v>
-      </c>
-      <c r="U4">
-        <v>3</v>
-      </c>
-      <c r="V4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" t="s">
-        <v>132</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5">
-        <v>4</v>
-      </c>
-      <c r="N5" s="24">
-        <v>44687</v>
-      </c>
-      <c r="O5">
-        <v>7</v>
-      </c>
-      <c r="P5">
-        <v>10</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
-      <c r="U5">
-        <v>4</v>
-      </c>
-      <c r="V5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16">
+        <v>200</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" t="s">
         <v>138</v>
       </c>
-      <c r="J6">
-        <v>3</v>
-      </c>
-      <c r="K6" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6" s="24">
-        <v>45206</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6">
-        <v>80</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>1</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" t="s">
-        <v>84</v>
-      </c>
-      <c r="U6">
-        <v>5</v>
-      </c>
-      <c r="V6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="23"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10">
-        <v>350</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11">
-        <v>1000</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12">
-        <v>80</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14">
-        <v>200</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>167</v>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3238,673 +3301,1413 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25792CA2-A340-4818-8933-963BC1F39245}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="16" max="16" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>124</v>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="22" t="s">
+        <v>127</v>
+      </c>
       <c r="E2" s="22" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="F2" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="24">
+        <v>43957</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>10</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="24">
+        <v>43720</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="24">
+        <v>40462</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="24">
+        <v>44687</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>10</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="24">
+        <v>45206</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>80</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="33"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="39" t="s">
-        <v>149</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="D25" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F25" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26">
+        <v>350</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J26" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27">
+        <v>1000</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K27" t="s">
         <v>78</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>133</v>
-      </c>
-      <c r="I4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>135</v>
-      </c>
-      <c r="I6" t="s">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="M9" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="25">
-        <v>1</v>
-      </c>
-      <c r="H10" s="24">
-        <v>43957</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" s="24">
-        <v>43720</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
-      </c>
-      <c r="J11">
-        <v>30</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="24" t="s">
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" s="24" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="24">
-        <v>40462</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>40</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13" s="24">
-        <v>44687</v>
-      </c>
-      <c r="I13">
-        <v>7</v>
-      </c>
-      <c r="J13">
-        <v>10</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14" s="24">
-        <v>45206</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>80</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="38" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="G25" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
       </c>
       <c r="H28">
         <v>3</v>
       </c>
-      <c r="I28">
+      <c r="J28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" t="s">
+        <v>174</v>
+      </c>
+      <c r="F29" s="24" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H30">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
-      <c r="R30" s="42"/>
-      <c r="S30" s="42"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="41" t="s">
-        <v>169</v>
-      </c>
+      <c r="J30" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EB8510-681A-434A-8FF2-0CFA5EDA1D1E}">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="I1" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="M1" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="24">
+        <v>43957</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="24">
+        <v>43720</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>30</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="24">
+        <v>40462</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>40</v>
+      </c>
+      <c r="J12" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="24">
+        <v>44687</v>
+      </c>
+      <c r="H13">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="24">
+        <v>45206</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E16" s="33"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25">
+        <v>350</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="J25" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26">
+        <v>1000</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>171</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="K28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+      <c r="J30" s="24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A31:D31"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3E6DA-A7F9-43D6-91D3-99B6F522048C}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L1" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>128</v>
+      </c>
+      <c r="N2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" t="s">
+        <v>134</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>130</v>
+      </c>
+      <c r="J5" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="24">
+        <v>43957</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="24">
+        <v>43720</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="24">
+        <v>40462</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="24">
+        <v>44687</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="24">
+        <v>45206</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18">
+        <v>350</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20">
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22">
+        <v>200</v>
+      </c>
+      <c r="I22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>4</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3834BDBF-BACD-4FF2-BB5C-5E1220A43282}">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G1" s="38"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>124</v>
       </c>
@@ -3918,7 +4721,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G2" s="31"/>
       <c r="H2" s="22"/>
@@ -3926,7 +4729,7 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3943,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3960,7 +4763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3977,7 +4780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3994,15 +4797,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>108</v>
       </c>
       <c r="G8" s="38" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>145</v>
       </c>
@@ -4019,22 +4822,22 @@
         <v>144</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L9" s="40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M9" s="33" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4066,7 +4869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4098,7 +4901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4130,7 +4933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4162,7 +4965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4194,15 +4997,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G16" s="38" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="27" t="s">
         <v>139</v>
       </c>
@@ -4219,13 +5022,13 @@
         <v>145</v>
       </c>
       <c r="G17" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="H17" s="33" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -4242,7 +5045,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -4259,7 +5062,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -4282,7 +5085,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -4299,7 +5102,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -4322,140 +5125,88 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D25" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>154</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D25" s="30"/>
-      <c r="G25" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H25" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="I25" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
       <c r="B27" t="s">
         <v>112</v>
       </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>2</v>
-      </c>
-      <c r="I27">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
       <c r="B28" t="s">
         <v>114</v>
       </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
       <c r="B29" t="s">
         <v>114</v>
       </c>
-      <c r="G29">
-        <v>4</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
       <c r="B30" t="s">
         <v>116</v>
       </c>
-      <c r="G30">
-        <v>5</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" s="22" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G37" s="38" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -4463,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>126</v>
@@ -4472,7 +5223,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -4489,7 +5240,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -4509,7 +5260,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4</v>
       </c>
@@ -4529,7 +5280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G42">
         <v>4</v>
       </c>
@@ -4540,28 +5291,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-      <c r="N43" s="42"/>
-      <c r="O43" s="42"/>
-      <c r="P43" s="42"/>
-      <c r="Q43" s="42"/>
-      <c r="R43" s="42"/>
-      <c r="S43" s="42"/>
-      <c r="T43" s="42"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="41" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B44" s="41"/>
       <c r="C44" s="41"/>
@@ -4571,17 +5303,6 @@
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
-      <c r="M46" s="42"/>
-      <c r="N46" s="42"/>
-      <c r="O46" s="42"/>
-      <c r="P46" s="42"/>
-      <c r="Q46" s="42"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A44:H44"/>
@@ -4589,4 +5310,262 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006906BD691B85264BAE92BBA364CF27E7" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f2fd7e278f3424424cf8cae7e3fca23">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71c21392-2f97-4640-aa4b-3df5c4132913" xmlns:ns4="95d96561-6f8f-4900-8a68-84dfb5dc8926" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6de66d2a75c7fcabe8ddbb0cbdbe162f" ns3:_="" ns4:_="">
+    <xsd:import namespace="71c21392-2f97-4640-aa4b-3df5c4132913"/>
+    <xsd:import namespace="95d96561-6f8f-4900-8a68-84dfb5dc8926"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="71c21392-2f97-4640-aa4b-3df5c4132913" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="15" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="95d96561-6f8f-4900-8a68-84dfb5dc8926" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="71c21392-2f97-4640-aa4b-3df5c4132913" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46BC4315-00C2-4338-925A-FFBBEAB637D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71c21392-2f97-4640-aa4b-3df5c4132913"/>
+    <ds:schemaRef ds:uri="95d96561-6f8f-4900-8a68-84dfb5dc8926"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804FD600-E57E-442F-A034-EF32490E5506}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27DB4E1E-D567-4A57-ABF7-89A829C9F103}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="95d96561-6f8f-4900-8a68-84dfb5dc8926"/>
+    <ds:schemaRef ds:uri="71c21392-2f97-4640-aa4b-3df5c4132913"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SQL/Normalization.xlsx
+++ b/SQL/Normalization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\331\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahma\Downloads\SQL 2\Project\fall2023database2project\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08E3A6A0-A6C3-4879-A28C-51B06FE3BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A533CD4-7EA2-4C46-A10E-4C62718E44BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{1296AB01-AD24-4F16-91A3-E8FD79BCC2E7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1296AB01-AD24-4F16-91A3-E8FD79BCC2E7}"/>
   </bookViews>
   <sheets>
     <sheet name="UNF" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="178">
   <si>
     <t>customer firstname</t>
   </si>
@@ -581,7 +581,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -779,6 +779,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -938,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -994,9 +1009,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1008,6 +1020,11 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1259,10 +1276,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1568,25 +1581,25 @@
       <selection activeCell="D29" sqref="D29:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="27.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.28515625" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.88671875" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.33203125" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
     <col min="17" max="17" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1640,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>21</v>
       </c>
@@ -1668,7 +1681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1707,7 +1720,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -1746,7 +1759,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1785,7 +1798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
@@ -1820,7 +1833,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -1853,7 +1866,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
@@ -1894,7 +1907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>76</v>
       </c>
@@ -1931,7 +1944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>56</v>
       </c>
@@ -1972,7 +1985,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>56</v>
       </c>
@@ -2013,7 +2026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -2054,7 +2067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -2095,7 +2108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -2136,7 +2149,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
@@ -2173,7 +2186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -2214,7 +2227,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
@@ -2255,7 +2268,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
@@ -2294,7 +2307,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>29</v>
       </c>
@@ -2335,7 +2348,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>29</v>
       </c>
@@ -2372,7 +2385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
@@ -2409,7 +2422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>99</v>
       </c>
@@ -2444,7 +2457,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>93</v>
       </c>
@@ -2481,7 +2494,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
@@ -2518,44 +2531,44 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="41"/>
-      <c r="U26" s="41"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="41"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="41"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-    </row>
-    <row r="28" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+    </row>
+    <row r="28" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14" t="s">
         <v>107</v>
       </c>
@@ -2568,25 +2581,25 @@
       <c r="D28" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="41"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-    </row>
-    <row r="29" spans="1:22" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+    </row>
+    <row r="29" spans="1:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
         <v>110</v>
       </c>
@@ -2600,7 +2613,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>112</v>
       </c>
@@ -2614,7 +2627,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
         <v>114</v>
       </c>
@@ -2628,7 +2641,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
         <v>116</v>
       </c>
@@ -2642,7 +2655,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
         <v>118</v>
       </c>
@@ -2656,7 +2669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>120</v>
       </c>
@@ -2670,7 +2683,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
         <v>110</v>
       </c>
@@ -2684,7 +2697,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>110</v>
       </c>
@@ -2698,7 +2711,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>118</v>
       </c>
@@ -2712,7 +2725,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>120</v>
       </c>
@@ -2726,7 +2739,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
         <v>114</v>
       </c>
@@ -2740,7 +2753,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>112</v>
       </c>
@@ -2754,7 +2767,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
         <v>116</v>
       </c>
@@ -2768,7 +2781,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>118</v>
       </c>
@@ -2782,7 +2795,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
         <v>120</v>
       </c>
@@ -2796,7 +2809,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>110</v>
       </c>
@@ -2810,7 +2823,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
         <v>116</v>
       </c>
@@ -2824,7 +2837,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>110</v>
       </c>
@@ -2838,7 +2851,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
         <v>118</v>
       </c>
@@ -2898,30 +2911,30 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -2940,7 +2953,7 @@
       <c r="F1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>136</v>
       </c>
       <c r="H1" s="25" t="s">
@@ -2970,7 +2983,7 @@
       <c r="P1" s="33"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3008,7 +3021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3046,7 +3059,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3093,7 +3106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3134,7 +3147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3181,12 +3194,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="23"/>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="43" t="s">
         <v>152</v>
       </c>
       <c r="C11" t="s">
@@ -3202,14 +3215,14 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>154</v>
       </c>
       <c r="C12">
         <v>350</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>168</v>
       </c>
       <c r="E12" t="s">
@@ -3219,14 +3232,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>112</v>
       </c>
       <c r="C13">
         <v>1000</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>169</v>
       </c>
       <c r="E13" t="s">
@@ -3236,14 +3249,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>114</v>
       </c>
       <c r="C14">
         <v>80</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>171</v>
       </c>
       <c r="E14" t="s">
@@ -3253,14 +3266,14 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>114</v>
       </c>
       <c r="C15">
         <v>200</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="D15" s="41" t="s">
         <v>173</v>
       </c>
       <c r="E15" t="s">
@@ -3270,14 +3283,14 @@
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>116</v>
       </c>
       <c r="C16">
         <v>200</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>175</v>
       </c>
       <c r="E16" t="s">
@@ -3287,7 +3300,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>164</v>
       </c>
@@ -3303,25 +3316,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25792CA2-A340-4818-8933-963BC1F39245}">
   <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.33203125" customWidth="1"/>
     <col min="16" max="16" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -3341,7 +3354,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -3358,7 +3371,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -3375,7 +3388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3395,7 +3408,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -3415,7 +3428,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>136</v>
       </c>
@@ -3425,7 +3438,7 @@
       <c r="C9" s="26"/>
       <c r="D9" s="26"/>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>80</v>
       </c>
@@ -3448,7 +3461,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>48</v>
       </c>
@@ -3471,7 +3484,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>81</v>
       </c>
@@ -3494,7 +3507,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>80</v>
       </c>
@@ -3517,7 +3530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>81</v>
       </c>
@@ -3540,7 +3553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G15" s="24">
         <v>45206</v>
       </c>
@@ -3557,11 +3570,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E17" s="33"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B25" t="s">
@@ -3580,14 +3593,14 @@
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
       <c r="B26">
         <v>350</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>168</v>
       </c>
       <c r="D26" t="s">
@@ -3612,14 +3625,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>112</v>
       </c>
       <c r="B27">
         <v>1000</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>169</v>
       </c>
       <c r="D27" t="s">
@@ -3641,14 +3654,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
       <c r="B28">
         <v>80</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D28" t="s">
@@ -3670,14 +3683,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>114</v>
       </c>
       <c r="B29">
         <v>200</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>173</v>
       </c>
       <c r="D29" t="s">
@@ -3702,14 +3715,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>116</v>
       </c>
       <c r="B30">
         <v>200</v>
       </c>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="41" t="s">
         <v>175</v>
       </c>
       <c r="D30" t="s">
@@ -3731,7 +3744,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H31">
         <v>1</v>
       </c>
@@ -3742,38 +3755,38 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -3790,23 +3803,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EB8510-681A-434A-8FF2-0CFA5EDA1D1E}">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3821,21 +3836,21 @@
       </c>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="44" t="s">
         <v>127</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>126</v>
       </c>
       <c r="K1" s="22"/>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="44" t="s">
         <v>126</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -3855,7 +3870,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -3875,7 +3890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -3901,7 +3916,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -3927,7 +3942,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>136</v>
       </c>
@@ -3937,7 +3952,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="26"/>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>80</v>
       </c>
@@ -3953,14 +3968,14 @@
       <c r="I9" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="J9" s="43" t="s">
+      <c r="J9" s="42" t="s">
         <v>136</v>
       </c>
       <c r="K9" s="32" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
         <v>48</v>
       </c>
@@ -3983,7 +3998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>81</v>
       </c>
@@ -4006,7 +4021,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>80</v>
       </c>
@@ -4029,7 +4044,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>81</v>
       </c>
@@ -4052,7 +4067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G14" s="24">
         <v>45206</v>
       </c>
@@ -4069,11 +4084,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E16" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B24" t="s">
@@ -4082,45 +4097,48 @@
       <c r="C24" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="42" t="s">
         <v>136</v>
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>154</v>
       </c>
       <c r="B25">
         <v>350</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="41" t="s">
         <v>168</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>80</v>
       </c>
+      <c r="G25" s="52" t="s">
+        <v>141</v>
+      </c>
       <c r="H25" s="26" t="s">
         <v>140</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="J25" s="43" t="s">
+      <c r="J25" s="42" t="s">
         <v>136</v>
       </c>
       <c r="K25" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>112</v>
       </c>
       <c r="B26">
         <v>1000</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="41" t="s">
         <v>169</v>
       </c>
       <c r="D26" s="24" t="s">
@@ -4136,14 +4154,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>114</v>
       </c>
       <c r="B27">
         <v>80</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D27" s="24" t="s">
@@ -4159,14 +4177,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
       <c r="B28">
         <v>200</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="41" t="s">
         <v>173</v>
       </c>
       <c r="D28" s="24" t="s">
@@ -4185,14 +4203,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>116</v>
       </c>
       <c r="B29">
         <v>200</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="41" t="s">
         <v>175</v>
       </c>
       <c r="D29" s="24" t="s">
@@ -4208,7 +4226,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H30">
         <v>1</v>
       </c>
@@ -4219,38 +4237,38 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="32" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -4267,23 +4285,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD3E6DA-A7F9-43D6-91D3-99B6F522048C}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>158</v>
       </c>
@@ -4299,26 +4317,26 @@
       <c r="E1" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>127</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="L1" s="47" t="s">
+      <c r="L1" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="45" t="s">
         <v>126</v>
       </c>
       <c r="N1" s="22" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>76</v>
       </c>
@@ -4341,7 +4359,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -4364,7 +4382,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -4393,7 +4411,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -4422,8 +4440,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
         <v>145</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -4444,14 +4462,14 @@
       <c r="I8" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="J8" s="49" t="s">
+      <c r="J8" s="48" t="s">
         <v>145</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>80</v>
       </c>
@@ -4468,7 +4486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="24" t="s">
         <v>48</v>
       </c>
@@ -4485,7 +4503,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="24" t="s">
         <v>81</v>
       </c>
@@ -4502,7 +4520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
         <v>80</v>
       </c>
@@ -4519,7 +4537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
         <v>81</v>
       </c>
@@ -4536,20 +4554,20 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="43" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>152</v>
       </c>
       <c r="C17" t="s">
         <v>153</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="E17" s="49" t="s">
+      <c r="E17" s="48" t="s">
         <v>145</v>
       </c>
       <c r="H17" s="32" t="s">
@@ -4559,7 +4577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>154</v>
       </c>
@@ -4570,7 +4588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>112</v>
       </c>
@@ -4581,7 +4599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>114</v>
       </c>
@@ -4592,7 +4610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>114</v>
       </c>
@@ -4603,7 +4621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>116</v>
       </c>
@@ -4614,7 +4632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>139</v>
       </c>
@@ -4624,29 +4642,31 @@
       <c r="C25" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="D25" s="49" t="s">
-        <v>145</v>
+      <c r="D25" s="52" t="s">
+        <v>141</v>
       </c>
       <c r="E25" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F25" s="51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>4</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>3</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1</v>
       </c>
@@ -4656,14 +4676,14 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>4</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>1</v>
       </c>
@@ -4685,29 +4705,29 @@
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>155</v>
       </c>
       <c r="G1" s="38"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>124</v>
       </c>
@@ -4729,7 +4749,7 @@
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4746,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4763,7 +4783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4780,7 +4800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4797,7 +4817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="38" t="s">
         <v>108</v>
       </c>
@@ -4805,7 +4825,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>145</v>
       </c>
@@ -4837,7 +4857,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -4869,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -4901,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4933,7 +4953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1</v>
       </c>
@@ -4965,7 +4985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4997,7 +5017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="38" t="s">
         <v>160</v>
       </c>
@@ -5005,7 +5025,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="27" t="s">
         <v>139</v>
       </c>
@@ -5028,7 +5048,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1</v>
       </c>
@@ -5045,7 +5065,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2</v>
       </c>
@@ -5062,7 +5082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5085,7 +5105,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -5102,7 +5122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>5</v>
       </c>
@@ -5125,13 +5145,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="38" t="s">
         <v>162</v>
       </c>
       <c r="G24" s="38"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="23" t="s">
         <v>151</v>
       </c>
@@ -5147,7 +5167,7 @@
       <c r="G25" s="23"/>
       <c r="H25" s="30"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -5155,7 +5175,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -5163,7 +5183,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3</v>
       </c>
@@ -5171,7 +5191,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>4</v>
       </c>
@@ -5179,7 +5199,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>5</v>
       </c>
@@ -5187,12 +5207,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="38" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>156</v>
       </c>
@@ -5206,7 +5226,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1</v>
       </c>
@@ -5223,7 +5243,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -5240,7 +5260,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3</v>
       </c>
@@ -5260,7 +5280,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -5280,7 +5300,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G42">
         <v>4</v>
       </c>
@@ -5291,17 +5311,17 @@
         <v>138</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="41" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5313,6 +5333,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006906BD691B85264BAE92BBA364CF27E7" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4f2fd7e278f3424424cf8cae7e3fca23">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="71c21392-2f97-4640-aa4b-3df5c4132913" xmlns:ns4="95d96561-6f8f-4900-8a68-84dfb5dc8926" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6de66d2a75c7fcabe8ddbb0cbdbe162f" ns3:_="" ns4:_="">
     <xsd:import namespace="71c21392-2f97-4640-aa4b-3df5c4132913"/>
@@ -5509,15 +5538,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5527,6 +5547,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804FD600-E57E-442F-A034-EF32490E5506}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46BC4315-00C2-4338-925A-FFBBEAB637D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5541,14 +5569,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{804FD600-E57E-442F-A034-EF32490E5506}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
